--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed5/result_data_RandomForest.xlsx
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.095699999999995</v>
+        <v>-6.056099999999997</v>
       </c>
     </row>
     <row r="13">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.561099999999993</v>
+        <v>-7.305499999999995</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.163699999999999</v>
+        <v>-7.323300000000002</v>
       </c>
     </row>
     <row r="37">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.404800000000003</v>
+        <v>-7.214299999999998</v>
       </c>
     </row>
     <row r="39">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.964299999999993</v>
+        <v>-8.126599999999994</v>
       </c>
     </row>
     <row r="47">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.8761</v>
+        <v>-7.911800000000002</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.640299999999995</v>
+        <v>-7.356799999999995</v>
       </c>
     </row>
     <row r="56">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.343399999999998</v>
+        <v>-7.373499999999996</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.538399999999998</v>
+        <v>-7.453699999999999</v>
       </c>
     </row>
     <row r="70">
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.167599999999997</v>
+        <v>-7.363399999999997</v>
       </c>
     </row>
     <row r="73">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.987999999999999</v>
+        <v>-7.960799999999997</v>
       </c>
     </row>
     <row r="92">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.070400000000003</v>
+        <v>-8.023699999999998</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.6157</v>
+        <v>-7.617299999999996</v>
       </c>
     </row>
     <row r="105">
